--- a/Data/Concordances/water_concordance.xlsx
+++ b/Data/Concordances/water_concordance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maxime\PycharmProjects\OpenIOCanada\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11max\PycharmProjects\OpenIOCanada\Data\Concordances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA15A08-B844-479E-83E9-BCE820B81132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3711789-FD9F-46D6-9C2E-F4F0EE9A578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22200" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary level" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="414">
   <si>
     <t>BS11300</t>
   </si>
@@ -1276,6 +1276,9 @@
   </si>
   <si>
     <t>BS339</t>
+  </si>
+  <si>
+    <t>BS517000</t>
   </si>
 </sst>
 </file>
@@ -1339,7 +1342,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3097,7 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15253D72-A81D-4E40-B134-6272BB3EBEC1}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -4095,8 +4098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4EC233-B2C0-4570-A3A0-C38B0FCBFD6E}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4866,9 +4869,12 @@
         <v>372</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="H54" s="4" t="s">
         <v>373</v>
       </c>
     </row>
